--- a/DesignDocuments/Database Design.xlsx
+++ b/DesignDocuments/Database Design.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="Customer" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Item" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Order" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="DeliveryOrder" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>ItemID</t>
   </si>
@@ -21,89 +21,98 @@
     <t>ItemName</t>
   </si>
   <si>
-    <t>ItemPrice (Rs)</t>
+    <t>ItemPrice (Rs/Kg)</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
   </si>
   <si>
     <t>OrderID</t>
   </si>
   <si>
-    <t>ItemD</t>
-  </si>
-  <si>
     <t>CustomerID</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>BillAmount</t>
   </si>
   <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>DOUBLE(7, 2)</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
     <t>PRIMARY KEY</t>
   </si>
   <si>
-    <t>ItemQuantity (kg)</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>BuildingName</t>
+  </si>
+  <si>
+    <t>ApartmentNumber</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>OptionalAddress</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PinCode</t>
+  </si>
+  <si>
+    <t>VARCHAR(12)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>DOUBLE(9, 2)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>VARCHAR(10000)</t>
   </si>
   <si>
     <t>INT(5)</t>
   </si>
   <si>
-    <t>FLOAT(2.2)</t>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>INT(6)</t>
   </si>
   <si>
     <t>(ItemPrice * Quantity)</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>BuildingName</t>
-  </si>
-  <si>
-    <t>ApartmentNumber</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>OptionalAddress</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>PinCode</t>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>INT(6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -114,6 +123,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -155,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -165,16 +178,19 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -404,150 +420,150 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -564,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="25.0"/>
+    <col customWidth="1" min="3" max="3" width="19.29"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -577,55 +593,45 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -642,58 +648,75 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="19.14"/>
+    <col customWidth="1" min="3" max="5" width="19.14"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
